--- a/data/estable2.xlsx
+++ b/data/estable2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arbeit\FAU_ Hello better\bookdown-demo-master\bookdown-demo-master\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathiasharrer/Documents/R/meta-book-online/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF58999-97FB-4653-83C8-FAD44ABE0999}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD756DA6-084C-B344-ADA0-156DC88FC187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{19712B04-98E2-B849-AB66-550DBC402A41}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{19712B04-98E2-B849-AB66-550DBC402A41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -200,9 +200,6 @@
     <t>esc\_mean\_sd</t>
   </si>
   <si>
-    <t>$\text{SMD}= \dfrac{\bar{x}_{t_2} - \bar{x}_{t_1}}{\left({\dfrac{\sqrt{(s^2_{t_1}+s^2_{t2})/2}}{\sqrt{2(1-r_{t_1t_2})}}}\right)}$</t>
-  </si>
-  <si>
     <t>$\text{SE}_{\log \text{RR}} = \sqrt{\dfrac{1}{a}+\dfrac{1}{c} - \dfrac{1}{a+b} - \dfrac{1}{c+d}}$</t>
   </si>
   <si>
@@ -234,6 +231,9 @@
   </si>
   <si>
     <t>$\text{SMD}_c = \dfrac{\text{U}\times \text{SMD}}{\sqrt{(\text{U}^2-1)\text{SMD}^2+1}}$</t>
+  </si>
+  <si>
+    <t>$\text{SMD}= \dfrac{\bar{x}_{t_2} - \bar{x}_{t_1}}{s_{\text{t}_1}}$</t>
   </si>
 </sst>
 </file>
@@ -273,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -289,7 +289,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -587,19 +587,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AD1B7E-1537-1342-A038-6FC92265AECA}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="126" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.19921875" customWidth="1"/>
-    <col min="2" max="2" width="37.69921875" customWidth="1"/>
+    <col min="1" max="1" width="47.1640625" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="24.69921875" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -613,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -638,7 +638,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -649,7 +649,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -663,7 +663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -674,7 +674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -685,7 +685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -696,7 +696,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -710,7 +710,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -721,18 +721,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -740,10 +740,10 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -751,23 +751,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -781,15 +781,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -797,7 +797,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -805,37 +805,37 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -843,10 +843,10 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -854,10 +854,10 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -865,7 +865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -876,26 +876,26 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>45</v>
       </c>
